--- a/Unity/Assets/Config/Excel/UIMultilingualConfig@c.xlsx
+++ b/Unity/Assets/Config/Excel/UIMultilingualConfig@c.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="UIMultilingualConfig" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UIMultilingualConfig!$C$5:$H$15</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>#</t>
   </si>
@@ -152,6 +155,15 @@
   </si>
   <si>
     <t>Login</t>
+  </si>
+  <si>
+    <t>E_CutLoginButto</t>
+  </si>
+  <si>
+    <t>返回登录</t>
+  </si>
+  <si>
+    <t>Back to login</t>
   </si>
 </sst>
 </file>
@@ -164,7 +176,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +195,17 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -644,10 +667,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,37 +679,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,98 +712,104 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,6 +823,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1150,10 +1179,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:H15"/>
+  <dimension ref="C2:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1410,7 +1441,28 @@
         <v>45</v>
       </c>
     </row>
+    <row r="16" spans="3:8">
+      <c r="C16" s="5">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="C5:H15">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/UIMultilingualConfig@c.xlsx
+++ b/Unity/Assets/Config/Excel/UIMultilingualConfig@c.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t/>
   </si>
@@ -202,24 +202,6 @@
   </si>
   <si>
     <t>Loading resources</t>
-  </si>
-  <si>
-    <t>区服</t>
-  </si>
-  <si>
-    <t>E_ServerInfoText</t>
-  </si>
-  <si>
-    <t>亚洲</t>
-  </si>
-  <si>
-    <t>Asia</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>America</t>
   </si>
 </sst>
 </file>
@@ -474,7 +456,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -509,19 +491,16 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="300" fontId="1" fillId="2" borderId="1" xfId="0">
@@ -830,16 +809,16 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col min="1" max="2" width="9" style="17"/>
-    <col min="3" max="3" width="9" style="18"/>
-    <col min="4" max="5" width="18.5455" style="18" customWidth="true"/>
-    <col min="6" max="6" width="95.1818" style="18" customWidth="true"/>
-    <col min="7" max="7" width="35.3636" style="18" customWidth="true"/>
-    <col min="8" max="8" width="50" style="18" customWidth="true"/>
-    <col min="9" max="26" width="9" style="17"/>
+    <col min="1" max="2" width="9" style="16"/>
+    <col min="3" max="3" width="9" style="17"/>
+    <col min="4" max="5" width="18.5455" style="17" customWidth="true"/>
+    <col min="6" max="6" width="95.1818" style="17" customWidth="true"/>
+    <col min="7" max="7" width="35.3636" style="17" customWidth="true"/>
+    <col min="8" max="8" width="50" style="17" customWidth="true"/>
+    <col min="9" max="26" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" s="17" customFormat="true">
+    <row r="2" spans="3:8" s="16" customFormat="true">
       <c r="C2" s="2" t="s"/>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -853,7 +832,7 @@
       <c r="G2" s="2" t="s"/>
       <c r="H2" s="2" t="s"/>
     </row>
-    <row r="3" spans="3:8" s="17" customFormat="true">
+    <row r="3" spans="3:8" s="16" customFormat="true">
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
@@ -873,7 +852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:8" s="17" customFormat="true">
+    <row r="4" spans="3:8" s="16" customFormat="true">
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
@@ -891,7 +870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="3:8" s="17" customFormat="true">
+    <row r="5" spans="3:8" s="16" customFormat="true">
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
@@ -909,7 +888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:8" s="17" customFormat="true">
+    <row r="6" spans="2:8" s="16" customFormat="true">
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
@@ -1181,53 +1160,29 @@
       </c>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="B22" s="5" t="s"/>
       <c r="C22" s="12" t="s"/>
-      <c r="D22" s="13" t="s">
-        <v>63</v>
-      </c>
+      <c r="D22" s="13" t="s"/>
       <c r="E22" s="14" t="s"/>
       <c r="F22" s="14" t="s"/>
       <c r="G22" s="14" t="s"/>
       <c r="H22" s="14" t="s"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="15">
-        <v>1010001</v>
-      </c>
-      <c r="D23" s="16" t="s"/>
-      <c r="E23" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="C23" s="15" t="s"/>
+      <c r="D23" s="13" t="s"/>
+      <c r="E23" s="13" t="s"/>
+      <c r="F23" s="13" t="s"/>
+      <c r="G23" s="13" t="s"/>
+      <c r="H23" s="15" t="s"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="10">
-        <v>1010002</v>
-      </c>
+      <c r="C24" s="10" t="s"/>
       <c r="D24" s="10" t="s"/>
-      <c r="E24" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>68</v>
-      </c>
+      <c r="E24" s="11" t="s"/>
+      <c r="F24" s="11" t="s"/>
+      <c r="G24" s="11" t="s"/>
+      <c r="H24" s="10" t="s"/>
     </row>
   </sheetData>
   <autoFilter ref="C5:H24">
